--- a/mission/task_next_2_weeks_20170214.xlsx
+++ b/mission/task_next_2_weeks_20170214.xlsx
@@ -96,10 +96,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>审核通过/不通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>list, 保存状态, 审核状态，是否自定义，自定义单位，换算参数，品类单位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -378,6 +374,10 @@
   </si>
   <si>
     <t>接口任务工数预估</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过/不通过</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -481,12 +481,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +489,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,7 +803,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:B40"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -822,8 +822,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>54</v>
+      <c r="A2" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,24 +839,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,11 +897,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,13 +947,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -972,163 +972,163 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/mission/task_next_2_weeks_20170214.xlsx
+++ b/mission/task_next_2_weeks_20170214.xlsx
@@ -403,13 +403,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
@@ -418,107 +411,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,8 +492,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,19 +525,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -570,85 +569,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,97 +743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,60 +760,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -837,6 +782,60 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -845,8 +844,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,10 +868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,94 +880,94 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,37 +976,37 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,13 +1026,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1385,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
